--- a/exports mod and seasons/monthly_trends.xlsx
+++ b/exports mod and seasons/monthly_trends.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\P.A. Ruben\Desktop\thesis SEC\1 - SE data\gis.SE.thesis\exports mod and seasons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46C39F3-E6C3-4FEF-B0D2-0D48805199C2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CF39C0-0C93-483C-B71E-CFC46E6A9DEC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{5344D6CB-351A-432C-89C8-FE73097AE2DC}"/>
   </bookViews>
@@ -2901,1176 +2901,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Monthyl</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> number of questions without activity</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>questions</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$C$2:$C$42</c:f>
-              <c:strCache>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>2017-1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2017-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2017-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2017-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2017-5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2017-6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2017-7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2017-8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2017-9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2017-10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2017-11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2017-12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2018-1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2018-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2018-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2018-4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2018-5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2018-6</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2018-7</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2018-8</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2018-9</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2018-10</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2018-11</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2018-12</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2019-1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2019-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2019-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2019-4</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2019-5</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2019-6</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2019-7</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2019-8</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2019-9</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2019-10</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2019-11</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2019-12</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2020-1</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2020-2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2020-3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2020-4</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2020-5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$D$2:$D$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>1398</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1359</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1524</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1300</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1338</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1401</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1304</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1246</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1153</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1163</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1278</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1027</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1248</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1193</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1394</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1283</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1275</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1233</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1232</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1218</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1008</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1192</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1266</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>977</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1317</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1303</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1264</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1183</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1269</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1233</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1481</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1330</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1256</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1349</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1420</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1333</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1429</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1483</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1527</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1626</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8E4F-410C-9214-8C051F148444}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$AD$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>of which questions without answer</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$C$2:$C$42</c:f>
-              <c:strCache>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>2017-1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2017-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2017-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2017-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2017-5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2017-6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2017-7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2017-8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2017-9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2017-10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2017-11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2017-12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2018-1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2018-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2018-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2018-4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2018-5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2018-6</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2018-7</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2018-8</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2018-9</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2018-10</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2018-11</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2018-12</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2019-1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2019-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2019-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2019-4</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2019-5</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2019-6</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2019-7</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2019-8</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2019-9</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2019-10</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2019-11</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2019-12</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2020-1</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2020-2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2020-3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2020-4</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2020-5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$AD$2:$AD$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>371</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>314</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>370</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>340</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>310</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>341</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>322</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>330</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>299</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>273</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>330</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>261</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>286</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>313</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>390</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>349</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>347</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>352</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>372</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>286</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>271</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>275</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>388</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>390</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>386</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>425</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>475</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>571</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>556</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>536</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>526</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>632</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>489</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>543</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>544</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>617</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>685</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>834</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8E4F-410C-9214-8C051F148444}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$AE$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>of which question without answer and without comment</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$C$2:$C$42</c:f>
-              <c:strCache>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>2017-1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2017-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2017-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2017-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2017-5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2017-6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2017-7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2017-8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2017-9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2017-10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2017-11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2017-12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2018-1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2018-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2018-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2018-4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2018-5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2018-6</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2018-7</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2018-8</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2018-9</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2018-10</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2018-11</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2018-12</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2019-1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2019-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2019-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2019-4</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2019-5</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2019-6</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2019-7</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2019-8</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2019-9</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2019-10</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2019-11</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2019-12</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2020-1</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2020-2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2020-3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2020-4</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2020-5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$AE$2:$AE$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>169</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>206</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>166</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>216</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>251</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>329</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8E4F-410C-9214-8C051F148444}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="308692904"/>
-        <c:axId val="308694544"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="308692904"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="308694544"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="308694544"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="308692904"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -7666,15 +6496,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>e_norm</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>number of edits</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -7962,15 +6784,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>e_share</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>moderator share</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -8555,15 +7369,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>c_norm</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>number of comments</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -8851,15 +7657,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$O$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>c_mod_share</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>moderator share</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -9434,15 +8232,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$U$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>cl_norm</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>number of closures</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -9730,15 +8520,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$V$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>cl_mod_share</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>moderator share</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -10259,13 +9041,20 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Number</a:t>
+              <a:t>Average</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> of new users, answers and questions (1/2017=1.0)</a:t>
+              <a:t> number of c</a:t>
             </a:r>
-            <a:endParaRPr lang="en-GB"/>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>omments per</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> thread</a:t>
+            </a:r>
           </a:p>
         </c:rich>
       </c:tx>
@@ -10307,17 +9096,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>q_norm</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -10463,132 +9241,132 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$2:$E$42</c:f>
+              <c:f>Sheet2!$AA$2:$AA$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>3.2081545064377681</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97210300429184548</c:v>
+                  <c:v>3.4819720382634292</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0901287553648069</c:v>
+                  <c:v>3.3838582677165356</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.92989985693848354</c:v>
+                  <c:v>3.1538461538461537</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.9570815450643777</c:v>
+                  <c:v>3.2414050822122573</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.002145922746781</c:v>
+                  <c:v>3.3683083511777303</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.93276108726752505</c:v>
+                  <c:v>3.3105828220858897</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.89127324749642345</c:v>
+                  <c:v>3.2215088282504012</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.82474964234620884</c:v>
+                  <c:v>3.4215091066782306</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.83190271816881256</c:v>
+                  <c:v>3.3026655202063631</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.91416309012875541</c:v>
+                  <c:v>3.3395931142410014</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.73462088698140204</c:v>
+                  <c:v>3.2074001947419668</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.89270386266094426</c:v>
+                  <c:v>3.1826923076923075</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.85336194563662371</c:v>
+                  <c:v>3.1483654652137467</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.99713876967095849</c:v>
+                  <c:v>3.2876614060258249</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.91773962804005726</c:v>
+                  <c:v>3.4411535463756819</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.91201716738197425</c:v>
+                  <c:v>3.3388235294117647</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.88197424892703857</c:v>
+                  <c:v>3.1565287915652878</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.88125894134477822</c:v>
+                  <c:v>3.0154220779220777</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.871244635193133</c:v>
+                  <c:v>3.284072249589491</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.72103004291845496</c:v>
+                  <c:v>3.6001984126984126</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.85264663805436336</c:v>
+                  <c:v>3.2298657718120807</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.90557939914163088</c:v>
+                  <c:v>3.2654028436018958</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.69885550786838335</c:v>
+                  <c:v>3.3643807574206757</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.94206008583690992</c:v>
+                  <c:v>3.3705391040242976</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.9320457796852647</c:v>
+                  <c:v>3.4627782041442825</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.90414878397711018</c:v>
+                  <c:v>3.2452531645569622</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.84620886981401999</c:v>
+                  <c:v>3.3279797125950972</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.90772532188841204</c:v>
+                  <c:v>3.1158392434988178</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.88197424892703857</c:v>
+                  <c:v>2.9383617193836171</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.0593705293276108</c:v>
+                  <c:v>2.8757596218771102</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.95135908440629469</c:v>
+                  <c:v>2.8090225563909774</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.89842632331902716</c:v>
+                  <c:v>2.8423566878980893</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.96494992846924177</c:v>
+                  <c:v>2.9273535952557448</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.0157367668097281</c:v>
+                  <c:v>2.778169014084507</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.85836909871244638</c:v>
+                  <c:v>3.0350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.95350500715307585</c:v>
+                  <c:v>3.0300075018754691</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.0221745350500715</c:v>
+                  <c:v>2.9797060881735478</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.0608011444921317</c:v>
+                  <c:v>2.5637221847606204</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.092274678111588</c:v>
+                  <c:v>2.5422396856581533</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.1630901287553648</c:v>
+                  <c:v>2.5676506765067653</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10596,599 +9374,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0E17-4363-B45B-4C354331104A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>a_norm</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$C$2:$C$42</c:f>
-              <c:strCache>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>2017-1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2017-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2017-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2017-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2017-5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2017-6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2017-7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2017-8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2017-9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2017-10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2017-11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2017-12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2018-1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2018-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2018-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2018-4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2018-5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2018-6</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2018-7</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2018-8</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2018-9</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2018-10</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2018-11</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2018-12</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2019-1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2019-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2019-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2019-4</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2019-5</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2019-6</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2019-7</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2019-8</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2019-9</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2019-10</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2019-11</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2019-12</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2020-1</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2020-2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2020-3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2020-4</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2020-5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$G$2:$G$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.032480995162405</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.128541810642709</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.9039391845196959</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.97097442985487215</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.99792674498963374</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.97581202487906016</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.93572909467864551</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.85694540428472699</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.86592950932964752</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.93780234968901177</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.83137525915687627</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.92190739460953697</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.83690393918451966</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.98617829993089146</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.92398064961990323</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.95024187975120944</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.861782999308915</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.85418106427090534</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.95093296475466482</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.78438147892190735</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.91292328956461644</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.99654457498272286</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.74015203870076018</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.89495507947477537</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.9039391845196959</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.85970974429854874</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.72978576364892878</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.83828610919143054</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.7498272287491361</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.89702833448514163</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.74844505874222533</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.72702142363510713</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.81824464409122322</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.79198341395991712</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.73255010366275053</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.76503109882515552</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.87353144436765717</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.82653766413268837</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.84450587422252932</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.84312370421561855</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0E17-4363-B45B-4C354331104A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$X$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>u_norm</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$C$2:$C$42</c:f>
-              <c:strCache>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>2017-1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2017-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2017-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2017-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2017-5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2017-6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2017-7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2017-8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2017-9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2017-10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2017-11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2017-12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2018-1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2018-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2018-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2018-4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2018-5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2018-6</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2018-7</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2018-8</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2018-9</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2018-10</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2018-11</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2018-12</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2019-1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2019-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2019-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2019-4</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2019-5</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2019-6</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2019-7</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2019-8</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2019-9</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2019-10</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2019-11</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2019-12</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2020-1</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2020-2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2020-3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2020-4</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2020-5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$X$2:$X$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0028280542986425</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1436651583710407</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0084841628959276</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0616515837104072</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0096153846153846</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.004524886877828</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.0429864253393666</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.93834841628959276</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.0435520361990951</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.0701357466063348</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.86595022624434392</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.0090497737556561</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.0164027149321266</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.2562217194570136</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.1538461538461537</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.0859728506787329</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.88970588235294112</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.9095022624434389</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.94909502262443435</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.8631221719457014</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.0248868778280542</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.0373303167420815</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.85350678733031671</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.0424208144796381</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.93665158371040724</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.98359728506787325</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.92420814479638014</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.93665158371040724</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.81561085972850678</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.93947963800904977</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.90780542986425339</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.81617647058823528</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.95022624434389136</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.88744343891402711</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.77828054298642535</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.89649321266968329</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.92760180995475117</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.97624434389140269</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1.1787330316742082</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.0277149321266967</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0E17-4363-B45B-4C354331104A}"/>
+              <c16:uniqueId val="{00000000-CF27-4B04-83BE-CE82574B8A0A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11201,30 +9387,16 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1471565744"/>
-        <c:axId val="1471569024"/>
+        <c:axId val="1471566072"/>
+        <c:axId val="1471566400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1471565744"/>
+        <c:axId val="1471566072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -11262,16 +9434,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1471569024"/>
+        <c:crossAx val="1471566400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:tickMarkSkip val="3"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1471569024"/>
+        <c:axId val="1471566400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11322,7 +9493,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1471565744"/>
+        <c:crossAx val="1471566072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11334,37 +9505,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -11444,19 +9584,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Average</a:t>
+              <a:t>Aaverage number of</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> number of c</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>omments per</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> answer</a:t>
+              <a:t> answers per question</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -11644,132 +9776,132 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$AB$2:$AB$42</c:f>
+              <c:f>Sheet2!$Z$2:$Z$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>3.0995162404975813</c:v>
+                  <c:v>1.0350500715307582</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1673360107095045</c:v>
+                  <c:v>1.0993377483443709</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1579914268218006</c:v>
+                  <c:v>1.071522309711286</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1345565749235473</c:v>
+                  <c:v>1.0061538461538462</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0868327402135232</c:v>
+                  <c:v>1.0500747384155455</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.2680055401662051</c:v>
+                  <c:v>1.0306923625981441</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.0573654390934846</c:v>
+                  <c:v>1.0828220858895705</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.9645494830132941</c:v>
+                  <c:v>1.086677367576244</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.181451612903226</c:v>
+                  <c:v>1.0754553339115351</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.065442936951317</c:v>
+                  <c:v>1.0773860705073086</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.1451731761238024</c:v>
+                  <c:v>1.0618153364632237</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.7381546134663344</c:v>
+                  <c:v>1.1713729308666017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.9775112443778111</c:v>
+                  <c:v>1.0689102564102564</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.1015689512799338</c:v>
+                  <c:v>1.0150880134115674</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.2116327960756834</c:v>
+                  <c:v>1.0236728837876614</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.3021690351533284</c:v>
+                  <c:v>1.0420888542478566</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.0960000000000001</c:v>
+                  <c:v>1.0784313725490196</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.1210906174819568</c:v>
+                  <c:v>1.0113544201135443</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.0056634304207122</c:v>
+                  <c:v>1.0032467532467533</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.9069767441860463</c:v>
+                  <c:v>1.1297208538587848</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.1973568281938327</c:v>
+                  <c:v>1.1259920634920635</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.9144587433762301</c:v>
+                  <c:v>1.1082214765100671</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.8668515950069349</c:v>
+                  <c:v>1.1390205371248026</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.0690943043884222</c:v>
+                  <c:v>1.0962128966223132</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.4277992277992277</c:v>
+                  <c:v>0.98329536826119968</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.4495412844036699</c:v>
+                  <c:v>1.0038372985418265</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.297427652733119</c:v>
+                  <c:v>0.98417721518987344</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.7282196969696968</c:v>
+                  <c:v>0.89264581572273882</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.259686727122836</c:v>
+                  <c:v>0.95587076438140273</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.3391705069124424</c:v>
+                  <c:v>0.87996755879967559</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.2812018489984593</c:v>
+                  <c:v>0.87643484132343008</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.4496768236380424</c:v>
+                  <c:v>0.81428571428571428</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.3935361216730038</c:v>
+                  <c:v>0.83757961783439494</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.3353040540540539</c:v>
+                  <c:v>0.8776871756856931</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.4424083769633507</c:v>
+                  <c:v>0.8070422535211268</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.4358490566037734</c:v>
+                  <c:v>0.8833333333333333</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.6485998193315266</c:v>
+                  <c:v>0.83045761440360089</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.3686708860759493</c:v>
+                  <c:v>0.88453463960811751</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.1789297658862878</c:v>
+                  <c:v>0.8064733648010789</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.1767594108019641</c:v>
+                  <c:v>0.80026195153896529</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.4221311475409837</c:v>
+                  <c:v>0.7503075030750308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11777,7 +9909,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CF27-4B04-83BE-CE82574B8A0A}"/>
+              <c16:uniqueId val="{00000000-0604-4C5D-A03B-41E6A6AA1AEC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11987,12 +10119,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Aaverage number of</a:t>
+              <a:t>Monthyl</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> answers per question</a:t>
+              <a:t> number of questions without activity</a:t>
             </a:r>
+            <a:endParaRPr lang="en-GB"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -12034,6 +10167,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>questions</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -12179,132 +10323,132 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$Z$2:$Z$42</c:f>
+              <c:f>Sheet2!$D$2:$D$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>1.0350500715307582</c:v>
+                  <c:v>1398</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0993377483443709</c:v>
+                  <c:v>1359</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.071522309711286</c:v>
+                  <c:v>1524</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0061538461538462</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0500747384155455</c:v>
+                  <c:v>1338</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0306923625981441</c:v>
+                  <c:v>1401</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0828220858895705</c:v>
+                  <c:v>1304</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.086677367576244</c:v>
+                  <c:v>1246</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0754553339115351</c:v>
+                  <c:v>1153</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0773860705073086</c:v>
+                  <c:v>1163</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0618153364632237</c:v>
+                  <c:v>1278</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1713729308666017</c:v>
+                  <c:v>1027</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0689102564102564</c:v>
+                  <c:v>1248</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0150880134115674</c:v>
+                  <c:v>1193</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0236728837876614</c:v>
+                  <c:v>1394</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.0420888542478566</c:v>
+                  <c:v>1283</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.0784313725490196</c:v>
+                  <c:v>1275</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.0113544201135443</c:v>
+                  <c:v>1233</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.0032467532467533</c:v>
+                  <c:v>1232</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.1297208538587848</c:v>
+                  <c:v>1218</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.1259920634920635</c:v>
+                  <c:v>1008</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.1082214765100671</c:v>
+                  <c:v>1192</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.1390205371248026</c:v>
+                  <c:v>1266</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.0962128966223132</c:v>
+                  <c:v>977</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.98329536826119968</c:v>
+                  <c:v>1317</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.0038372985418265</c:v>
+                  <c:v>1303</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.98417721518987344</c:v>
+                  <c:v>1264</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.89264581572273882</c:v>
+                  <c:v>1183</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.95587076438140273</c:v>
+                  <c:v>1269</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.87996755879967559</c:v>
+                  <c:v>1233</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.87643484132343008</c:v>
+                  <c:v>1481</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.81428571428571428</c:v>
+                  <c:v>1330</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.83757961783439494</c:v>
+                  <c:v>1256</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.8776871756856931</c:v>
+                  <c:v>1349</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.8070422535211268</c:v>
+                  <c:v>1420</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.8833333333333333</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.83045761440360089</c:v>
+                  <c:v>1333</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.88453463960811751</c:v>
+                  <c:v>1429</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.8064733648010789</c:v>
+                  <c:v>1483</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.80026195153896529</c:v>
+                  <c:v>1527</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.7503075030750308</c:v>
+                  <c:v>1626</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12312,7 +10456,599 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0604-4C5D-A03B-41E6A6AA1AEC}"/>
+              <c16:uniqueId val="{00000000-8E4F-410C-9214-8C051F148444}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$AD$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>of which questions without answer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$C$2:$C$42</c:f>
+              <c:strCache>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>2017-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2017-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2017-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2017-7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017-8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017-9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2017-10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2017-11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2017-12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2018-1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2018-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2018-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2018-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2018-5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2018-6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018-7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2018-8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2018-9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2018-10</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2018-11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2018-12</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2019-1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2019-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2019-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2019-4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2019-5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2019-6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2019-7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2019-8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2019-9</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2019-10</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2019-11</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2019-12</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2020-1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2020-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2020-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2020-4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2020-5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$AD$2:$AD$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>571</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>556</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>526</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>632</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>489</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>543</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>617</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>685</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>834</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8E4F-410C-9214-8C051F148444}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$AE$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>of which question without answer and without comment</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$C$2:$C$42</c:f>
+              <c:strCache>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>2017-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2017-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2017-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2017-7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017-8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017-9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2017-10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2017-11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2017-12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2018-1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2018-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2018-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2018-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2018-5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2018-6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018-7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2018-8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2018-9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2018-10</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2018-11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2018-12</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2019-1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2019-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2019-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2019-4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2019-5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2019-6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2019-7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2019-8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2019-9</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2019-10</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2019-11</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2019-12</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2020-1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2020-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2020-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2020-4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2020-5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$AE$2:$AE$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>329</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8E4F-410C-9214-8C051F148444}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12325,11 +11061,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1471566072"/>
-        <c:axId val="1471566400"/>
+        <c:axId val="308692904"/>
+        <c:axId val="308694544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1471566072"/>
+        <c:axId val="308692904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12372,7 +11108,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1471566400"/>
+        <c:crossAx val="308694544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12380,7 +11116,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1471566400"/>
+        <c:axId val="308694544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12431,7 +11167,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1471566072"/>
+        <c:crossAx val="308692904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12443,6 +11179,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -12488,46 +11255,6 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -13403,522 +12130,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -18247,15 +16458,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18277,44 +16488,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47EA503E-628C-44C1-921B-9F1E219770E1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -18352,7 +16525,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -18361,15 +16534,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18390,7 +16563,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -18428,7 +16601,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -18823,8 +16996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D41164-E20A-42FF-9F69-A52B04FDCC66}">
   <dimension ref="A1:AE42"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23302,8 +21475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D10AD68-E367-43E4-A484-D486B4565354}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I25" workbookViewId="0">
-      <selection activeCell="U39" sqref="U39"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
